--- a/PC物料管理.xlsx
+++ b/PC物料管理.xlsx
@@ -8,21 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\ITS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04996AB6-407A-4FC9-BBD4-37F0B8E42DA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D23CAA4-846B-4640-B72A-BB35578B817E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="说明" sheetId="4" r:id="rId1"/>
     <sheet name="PC" sheetId="5" r:id="rId2"/>
     <sheet name="GDET-PCIE" sheetId="6" r:id="rId3"/>
+    <sheet name="主板" sheetId="7" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="56">
   <si>
     <t>PC PCIE PCI等管理</t>
     <phoneticPr fontId="2"/>
@@ -218,6 +219,18 @@
   </si>
   <si>
     <t>未分配</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ASUS-ProH410M-C</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>未使用</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>缺机箱，电源，内存条</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -633,7 +646,7 @@
   <dimension ref="B1:P8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C6" sqref="C6:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -827,8 +840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DA76693-58B7-4EC7-856D-D0A57CC9CE93}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A13"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -987,4 +1000,66 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{372E56D0-11F7-46A7-B024-2866DF8750B0}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="11.75" customWidth="1"/>
+    <col min="2" max="2" width="26.375" customWidth="1"/>
+    <col min="3" max="3" width="35.25" customWidth="1"/>
+    <col min="4" max="4" width="17.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/PC物料管理.xlsx
+++ b/PC物料管理.xlsx
@@ -1,29 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\ITS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\ITS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D23CAA4-846B-4640-B72A-BB35578B817E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC14DF0E-466D-4C69-86C0-C31A8C1F7FF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="说明" sheetId="4" r:id="rId1"/>
     <sheet name="PC" sheetId="5" r:id="rId2"/>
     <sheet name="GDET-PCIE" sheetId="6" r:id="rId3"/>
     <sheet name="主板" sheetId="7" r:id="rId4"/>
+    <sheet name="SSD" sheetId="8" r:id="rId5"/>
+    <sheet name="内存" sheetId="9" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="95">
   <si>
     <t>PC PCIE PCI等管理</t>
     <phoneticPr fontId="2"/>
@@ -37,10 +39,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>FAPC</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>型号</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -53,10 +51,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>硬盘</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>是否支持RAID</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -85,10 +79,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ProH410M-C</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>I7-9700TE</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -97,22 +87,10 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ASUS</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>2*PCI  2*PCIE(1*1 1*16)</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>3*PCI   2*PCIE(1*16 1*8)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>3*PCI   4*PCIE(2*16 2*8)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Maincon -FAPC</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -206,10 +184,6 @@
     <t>PC-7</t>
   </si>
   <si>
-    <t>PC-1</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>PC-5</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -226,23 +200,202 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>未使用</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>缺机箱，电源，内存条</t>
-    <phoneticPr fontId="2"/>
+    <t>已使用</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>PC-8</t>
+  </si>
+  <si>
+    <t>PC-9</t>
+  </si>
+  <si>
+    <t>主板/型号</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Pro H410M-C</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>现位置/状态</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>FAPC小</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>FAPC大</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>未组装</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>办公室，外壳有划伤，BI8</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>CleanRoom，BI8</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CleanRoom，调试ROBOT用，BI8</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>CleanRoom，BI12</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>办公室，缺硬盘</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>板载16G不可扩</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>板载16G可扩</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>8G*2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>16G*1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>硬盘1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>硬盘2</t>
+  </si>
+  <si>
+    <t>3*PCI  2*PCIE(1*16 1*8)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>3*PCI  4*PCIE(2*16 2*8)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Gigabyte-H510M-S2P</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>未到货</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>D7</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>D8</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>00001111</t>
+  </si>
+  <si>
+    <t>11110000</t>
+  </si>
+  <si>
+    <t>对应版本</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>BI8</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>BI12</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>大</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>准备返修</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>PC-3</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>PC-8(自组#4)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>PC-9(自组#5)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>自组PC #2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>自组PC #3</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>自组PC #4</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>自组PC #5</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>未到货</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>主板编号</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SSD编号</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>内存编号</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ADATA SU800 256G</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>科赋16G 3200</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>未装</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC-8</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Yu Gothic"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -250,14 +403,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Yu Gothic"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="Yu Gothic"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -276,6 +429,28 @@
       <name val="Microsoft YaHei"/>
       <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -298,7 +473,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -306,6 +481,19 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -588,7 +776,7 @@
       <selection sqref="A1:K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="2" t="s">
@@ -643,191 +831,279 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DE37878-FAB6-44BD-A822-05FC7C76E5A8}">
-  <dimension ref="B1:P8"/>
+  <dimension ref="B1:P10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9.625" customWidth="1"/>
-    <col min="2" max="2" width="7.125" customWidth="1"/>
-    <col min="3" max="3" width="17.25" customWidth="1"/>
-    <col min="4" max="4" width="13.125" customWidth="1"/>
-    <col min="5" max="5" width="34.25" customWidth="1"/>
-    <col min="6" max="8" width="20.375" customWidth="1"/>
-    <col min="9" max="9" width="19.25" customWidth="1"/>
-    <col min="10" max="11" width="20.375" customWidth="1"/>
-    <col min="12" max="12" width="20.25" customWidth="1"/>
-    <col min="13" max="13" width="22.125" customWidth="1"/>
-    <col min="14" max="14" width="20.625" customWidth="1"/>
-    <col min="15" max="15" width="28.5" customWidth="1"/>
-    <col min="16" max="16" width="29" customWidth="1"/>
+    <col min="1" max="1" width="9.625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="6" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.25" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.25" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.25" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.75" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.25" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="5.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.125" style="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.125" style="7" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:16">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="J1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="2:16">
+      <c r="B2" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="7">
+        <v>8032</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="2:16">
+      <c r="B3" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="7">
+        <v>8032</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="P3" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16">
+      <c r="B4" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="7">
+        <v>8034</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16">
+      <c r="B5" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="7">
+        <v>8034</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16">
+      <c r="B6" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="P1" s="1"/>
-    </row>
-    <row r="2" spans="2:16">
-      <c r="B2" s="1" t="s">
+      <c r="J6" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P6" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16">
+      <c r="B7" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P7" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16">
+      <c r="B8" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2">
-        <v>8032</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" s="1" t="s">
+      <c r="C8" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="2:16">
-      <c r="B3" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3">
-        <v>8032</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="2:16">
-      <c r="B4" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4">
-        <v>8034</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="2:16">
-      <c r="B5" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5">
-        <v>8034</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="2:16">
-      <c r="B6" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="D8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="I8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16">
+      <c r="B9" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="2:16">
-      <c r="B7" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="1" t="s">
+      <c r="I9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16">
+      <c r="B10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="2:16">
-      <c r="B8" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>25</v>
+      <c r="I10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -838,13 +1114,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DA76693-58B7-4EC7-856D-D0A57CC9CE93}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="18.625" customWidth="1"/>
     <col min="2" max="2" width="29.5" customWidth="1"/>
@@ -852,147 +1128,246 @@
     <col min="4" max="4" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:6" ht="16.5">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>35</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="16.5">
       <c r="A2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="16.5">
+      <c r="A3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="16.5">
+      <c r="A4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D4" s="8">
+        <v>20200902</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="16.5">
+      <c r="A5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" s="8">
+        <v>20210611</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="16.5">
+      <c r="A6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" s="8">
+        <v>20200902</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="16.5">
+      <c r="A7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="8">
+        <v>20200902</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="16.5">
+      <c r="A8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
+      <c r="B8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D8" s="8">
+        <v>20200902</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="16.5">
+      <c r="A9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1" t="s">
+      <c r="B9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="8">
+        <v>20200902</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="16.5">
+      <c r="A10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1" t="s">
+      <c r="B10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="8">
+        <v>20200902</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="16.5">
+      <c r="A11" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1" t="s">
+      <c r="B11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="8">
+        <v>20200902</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="16.5">
+      <c r="A12" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1" t="s">
+      <c r="B12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="8">
+        <v>20200902</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="16.5">
+      <c r="A13" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="C13" s="1" t="s">
-        <v>52</v>
+        <v>45</v>
+      </c>
+      <c r="D13" s="8">
+        <v>20200902</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1004,62 +1379,338 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{372E56D0-11F7-46A7-B024-2866DF8750B0}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="11.75" customWidth="1"/>
     <col min="2" max="2" width="26.375" customWidth="1"/>
-    <col min="3" max="3" width="35.25" customWidth="1"/>
+    <col min="3" max="3" width="25.625" customWidth="1"/>
     <col min="4" max="4" width="17.75" customWidth="1"/>
+    <col min="7" max="7" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:12" ht="16.5">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>88</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>35</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="16.5">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>55</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>47</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="16.5">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>54</v>
+        <v>47</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="J3">
+        <v>2</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="16.5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="J4">
+        <v>3</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="16.5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="J5">
+        <v>4</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="16.5">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+    </row>
+    <row r="7" spans="1:12" ht="16.5">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F7">
+        <v>6</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+    </row>
+    <row r="8" spans="1:12" ht="16.5">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F8">
+        <v>7</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+    </row>
+    <row r="9" spans="1:12" ht="16.5">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F9">
+        <v>8</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+    </row>
+    <row r="10" spans="1:12" ht="16.5">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="16.5">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="16.5">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="16.5">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{113B92C9-B719-4F1A-8031-4A32EF9DA002}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="2" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData/>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B11887B-770E-4796-B4B0-6B68EF999FFC}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData/>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>